--- a/src/test/java/com/base/sbc/selenium/plan/MM商品企划_企划目标.xlsx
+++ b/src/test/java/com/base/sbc/selenium/plan/MM商品企划_企划目标.xlsx
@@ -4436,32 +4436,32 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308811</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4187025</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>2019S MM</t>
+          <t>2019W MM</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C963960</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4187108</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J77" s="2" t="inlineStr">
@@ -4486,39 +4486,39 @@
       </c>
       <c r="K77" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308811</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4178586</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>2019S MM</t>
+          <t>2019W MM</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C963998</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4179582</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G78" s="2" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J78" s="2" t="inlineStr">
@@ -4543,34 +4543,34 @@
       </c>
       <c r="K78" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308811</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4178586</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>2019S MM</t>
+          <t>2019W MM</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C964001</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5291640</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr">
@@ -4607,27 +4607,27 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308811</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5325613</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>2019S MM</t>
+          <t>2019W MM</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C964004</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5325684</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr">
@@ -4664,7 +4664,7 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4187025</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C3600494</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4187108</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C3600518</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
@@ -4721,7 +4721,7 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4178586</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C3600494</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
@@ -4731,17 +4731,17 @@
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4179582</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6007260</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr">
@@ -4778,7 +4778,7 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4178586</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5368644</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
@@ -4788,17 +4788,17 @@
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5291640</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5368763</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr">
@@ -4835,7 +4835,7 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5325613</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4627147</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5325684</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4627154</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
@@ -4892,7 +4892,7 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C3600494</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C3533124</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -4907,7 +4907,7 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C3600518</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C3533217</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
@@ -4949,7 +4949,7 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C3600494</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C3533124</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6007260</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4110978</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
@@ -5006,7 +5006,7 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5368644</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1586112</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -5016,17 +5016,17 @@
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5368763</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1586115</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr">
@@ -5051,7 +5051,7 @@
       </c>
       <c r="J87" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="K87" s="2" t="inlineStr">
@@ -5063,7 +5063,7 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4627147</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4169190</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4627154</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4169193</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
@@ -5120,7 +5120,7 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C3533124</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4169190</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -5130,17 +5130,17 @@
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C3533217</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6007092</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr">
@@ -5177,7 +5177,7 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C3533124</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4169190</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -5187,17 +5187,17 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4110978</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7840456</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr">
@@ -5234,7 +5234,7 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1586112</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7160075</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
@@ -5244,17 +5244,17 @@
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1586115</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7160078</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="J91" s="2" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K91" s="2" t="inlineStr">
@@ -5291,7 +5291,7 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4169190</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6510686</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4169193</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6510689</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
@@ -5348,27 +5348,27 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4169190</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1791924</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>2019W MM</t>
+          <t>2019X MM</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6007092</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C2665093</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F93" s="2" t="inlineStr">
@@ -5405,27 +5405,27 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4169190</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1791924</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>2019W MM</t>
+          <t>2019X MM</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7840456</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1791927</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="K94" s="2" t="inlineStr">
@@ -5462,27 +5462,27 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7160075</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1791924</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>2019W MM</t>
+          <t>2019X MM</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>06</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7160078</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C2127030</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="K95" s="2" t="inlineStr">
@@ -5519,49 +5519,49 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6510686</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C2103287</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>2019W MM</t>
+          <t>2019X MM</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C2103350</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D96" s="2" t="inlineStr">
-        <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6510689</t>
-        </is>
-      </c>
-      <c r="E96" s="2" t="inlineStr">
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="F96" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G96" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I96" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J96" s="2" t="inlineStr">
         <is>
           <t>1</t>
@@ -5569,14 +5569,14 @@
       </c>
       <c r="K96" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1791924</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C2103287</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -5586,17 +5586,17 @@
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C2665093</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C2241555</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F97" s="2" t="inlineStr">
@@ -5633,7 +5633,7 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1791924</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1791906</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -5643,17 +5643,17 @@
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1791927</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C2607095</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="J98" s="2" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K98" s="2" t="inlineStr">
@@ -5690,7 +5690,7 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1791924</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1791906</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -5700,17 +5700,17 @@
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C2127030</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1873729</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F99" s="2" t="inlineStr">
@@ -5735,7 +5735,7 @@
       </c>
       <c r="J99" s="2" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K99" s="2" t="inlineStr">
@@ -5747,7 +5747,7 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C2103287</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1791906</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -5757,17 +5757,17 @@
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>06</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C2103350</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C2243163</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F100" s="2" t="inlineStr">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
@@ -5787,24 +5787,24 @@
       </c>
       <c r="I100" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J100" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K100" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C2103287</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C2910632</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -5814,17 +5814,17 @@
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C2241555</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C2910635</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F101" s="2" t="inlineStr">
@@ -5861,7 +5861,7 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1791906</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1668582</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C2607095</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1668586</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr">
@@ -5896,29 +5896,29 @@
       </c>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I102" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J102" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="K102" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1791906</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1668582</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
@@ -5933,7 +5933,7 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1873729</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1791990</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr">
@@ -5953,7 +5953,7 @@
       </c>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I103" s="2" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="J103" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="K103" s="2" t="inlineStr">
@@ -5975,7 +5975,7 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1791906</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C2838625</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -5985,17 +5985,17 @@
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C2243163</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C2838629</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F104" s="2" t="inlineStr">
@@ -6020,7 +6020,7 @@
       </c>
       <c r="J104" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K104" s="2" t="inlineStr">
@@ -6032,7 +6032,7 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C2910632</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C2838625</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
@@ -6042,17 +6042,17 @@
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C2910635</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C2969343</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F105" s="2" t="inlineStr">
@@ -6089,7 +6089,7 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1668582</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C2838625</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -6099,17 +6099,17 @@
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>06</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1668586</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4526448</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F106" s="2" t="inlineStr">
@@ -6124,29 +6124,29 @@
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J106" s="2" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K106" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1668582</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1553105</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -6156,17 +6156,17 @@
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1791990</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1553110</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F107" s="2" t="inlineStr">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="J107" s="2" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K107" s="2" t="inlineStr">
@@ -6203,7 +6203,7 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C2838625</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1553105</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -6213,17 +6213,17 @@
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C2838629</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1553113</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F108" s="2" t="inlineStr">
@@ -6238,29 +6238,29 @@
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I108" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J108" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K108" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C2838625</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1553105</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -6270,17 +6270,17 @@
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>06</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C2969343</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1553116</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F109" s="2" t="inlineStr">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="H109" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I109" s="2" t="inlineStr">
@@ -6317,27 +6317,27 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C2838625</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671989</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>2019X MM</t>
+          <t>2020A MM</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4526448</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7672023</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F110" s="2" t="inlineStr">
@@ -6374,27 +6374,27 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1553105</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671992</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>2019X MM</t>
+          <t>2020A MM</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1553110</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7672461</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F111" s="2" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="H111" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I111" s="2" t="inlineStr">
@@ -6431,27 +6431,27 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1553105</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671949</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>2019X MM</t>
+          <t>2020A MM</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1553113</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7673172</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F112" s="2" t="inlineStr">
@@ -6466,49 +6466,49 @@
       </c>
       <c r="H112" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I112" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J112" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K112" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1553105</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7368508</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>2019X MM</t>
+          <t>2020A MM</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>(未命名)</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1553116</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9713596</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
-          <t>06</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F113" s="2" t="inlineStr">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="H113" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I113" s="2" t="inlineStr">
@@ -6545,7 +6545,7 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671989</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7368508</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7672023</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7368513</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
@@ -6602,7 +6602,7 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671992</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671972</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -6617,7 +6617,7 @@
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7672461</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7674201</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
@@ -6659,7 +6659,7 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671949</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7672001</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
@@ -6674,7 +6674,7 @@
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7673172</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7674625</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr">
@@ -6716,7 +6716,7 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7368508</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7672001</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
@@ -6726,17 +6726,17 @@
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>(未命名)</t>
+          <t>08</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9713596</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C10013118</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>08</t>
         </is>
       </c>
       <c r="F117" s="2" t="inlineStr">
@@ -6773,7 +6773,7 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7368508</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9713477</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
@@ -6783,17 +6783,17 @@
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>09</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7368513</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9713535</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>09</t>
         </is>
       </c>
       <c r="F118" s="2" t="inlineStr">
@@ -6830,7 +6830,7 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671972</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7672015</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7674201</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7675109</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
@@ -6887,7 +6887,7 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7672001</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671976</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7674625</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7675299</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
@@ -6944,7 +6944,7 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7672001</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671997</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -6954,17 +6954,17 @@
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C10013118</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7675626</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F121" s="2" t="inlineStr">
@@ -7001,7 +7001,7 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9713477</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9489968</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
@@ -7011,17 +7011,17 @@
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9713535</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9489995</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F122" s="2" t="inlineStr">
@@ -7058,7 +7058,7 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7672015</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8838634</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7675109</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8838744</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
@@ -7115,7 +7115,7 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671976</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8983129</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -7130,7 +7130,7 @@
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7675299</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8983169</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
@@ -7172,7 +7172,7 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671997</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9041041</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -7187,7 +7187,7 @@
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7675626</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9041152</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
@@ -7229,7 +7229,7 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9489968</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9650345</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
@@ -7244,7 +7244,7 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9489995</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9650350</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
@@ -7286,27 +7286,27 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8838634</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031938</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>2020A MM</t>
+          <t>2020S MM</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8838744</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5032233</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F127" s="2" t="inlineStr">
@@ -7343,27 +7343,27 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8983129</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031938</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>2020A MM</t>
+          <t>2020S MM</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8983169</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6355988</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F128" s="2" t="inlineStr">
@@ -7400,27 +7400,27 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9041041</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031938</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>2020A MM</t>
+          <t>2020S MM</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9041152</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5032230</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F129" s="2" t="inlineStr">
@@ -7457,27 +7457,27 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9650345</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031426</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>2020A MM</t>
+          <t>2020S MM</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9650350</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6043654</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F130" s="2" t="inlineStr">
@@ -7514,7 +7514,7 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031938</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031426</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
@@ -7524,17 +7524,17 @@
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5032233</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031693</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F131" s="2" t="inlineStr">
@@ -7571,7 +7571,7 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031938</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031942</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
@@ -7581,17 +7581,17 @@
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>(未命名)</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6355988</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5325547</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F132" s="2" t="inlineStr">
@@ -7628,7 +7628,7 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031938</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031942</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -7638,17 +7638,17 @@
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5032230</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5288063</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F133" s="2" t="inlineStr">
@@ -7685,7 +7685,7 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031426</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031942</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -7695,17 +7695,17 @@
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6043654</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031965</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F134" s="2" t="inlineStr">
@@ -7742,7 +7742,7 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031426</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6078520</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
@@ -7752,17 +7752,17 @@
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031693</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7203504</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F135" s="2" t="inlineStr">
@@ -7799,7 +7799,7 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031942</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6078520</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -7809,17 +7809,17 @@
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>(未命名)</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5325547</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6078549</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>12</t>
         </is>
       </c>
       <c r="F136" s="2" t="inlineStr">
@@ -7856,7 +7856,7 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031942</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5467648</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5288063</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5467711</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr">
@@ -7913,7 +7913,7 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031942</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5467648</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
@@ -7923,17 +7923,17 @@
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031965</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6272076</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F138" s="2" t="inlineStr">
@@ -7970,7 +7970,7 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6078520</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5467648</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
@@ -7980,17 +7980,17 @@
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7203504</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5467734</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F139" s="2" t="inlineStr">
@@ -8027,7 +8027,7 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6078520</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4381441</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
@@ -8037,17 +8037,17 @@
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6078549</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4381731</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F140" s="2" t="inlineStr">
@@ -8084,7 +8084,7 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5467648</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4381441</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
@@ -8094,17 +8094,17 @@
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5467711</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4381754</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F141" s="2" t="inlineStr">
@@ -8141,7 +8141,7 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5467648</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4381441</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
@@ -8151,17 +8151,17 @@
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6272076</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4381757</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F142" s="2" t="inlineStr">
@@ -8198,7 +8198,7 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5467648</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4381441</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
@@ -8213,7 +8213,7 @@
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5467734</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4381727</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
@@ -8255,7 +8255,7 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4381441</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5293092</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4381731</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5985210</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
@@ -8312,7 +8312,7 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4381441</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5293092</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
@@ -8322,17 +8322,17 @@
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4381754</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5293195</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F145" s="2" t="inlineStr">
@@ -8369,7 +8369,7 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4381441</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031423</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -8379,17 +8379,17 @@
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4381757</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5833901</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F146" s="2" t="inlineStr">
@@ -8426,7 +8426,7 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4381441</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031423</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
@@ -8436,17 +8436,17 @@
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4381727</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5616991</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F147" s="2" t="inlineStr">
@@ -8483,7 +8483,7 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5293092</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031423</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
@@ -8493,17 +8493,17 @@
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>03</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5985210</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6000608</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F148" s="2" t="inlineStr">
@@ -8540,7 +8540,7 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5293092</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031423</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
@@ -8550,17 +8550,17 @@
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5293195</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5617016</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F149" s="2" t="inlineStr">
@@ -8607,17 +8607,17 @@
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5833901</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031449</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F150" s="2" t="inlineStr">
@@ -8654,7 +8654,7 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031423</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6456172</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -8664,17 +8664,17 @@
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5616991</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6456184</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F151" s="2" t="inlineStr">
@@ -8711,7 +8711,7 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031423</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7439281</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
@@ -8721,17 +8721,17 @@
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6000608</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7806717</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F152" s="2" t="inlineStr">
@@ -8768,7 +8768,7 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031423</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7439281</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
@@ -8778,17 +8778,17 @@
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5617016</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7439284</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F153" s="2" t="inlineStr">
@@ -8825,7 +8825,7 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031423</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6510313</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
@@ -8840,7 +8840,7 @@
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031449</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6510316</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr">
@@ -8882,27 +8882,27 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6456172</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9263622</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>2020S MM</t>
+          <t>2020W MM</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6456184</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9263625</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F155" s="2" t="inlineStr">
@@ -8939,27 +8939,27 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7439281</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9238896</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>2020S MM</t>
+          <t>2020W MM</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>(未命名)</t>
         </is>
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7806717</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C11058698</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F156" s="2" t="inlineStr">
@@ -8996,27 +8996,27 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7439281</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9238896</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>2020S MM</t>
+          <t>2020W MM</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7439284</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9238907</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F157" s="2" t="inlineStr">
@@ -9053,27 +9053,27 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6510313</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7606596</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>2020S MM</t>
+          <t>2020W MM</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6510316</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7606599</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F158" s="2" t="inlineStr">
@@ -9110,7 +9110,7 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9263622</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9215213</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
@@ -9125,7 +9125,7 @@
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9263625</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9215404</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr">
@@ -9167,7 +9167,7 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9238896</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9203607</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
@@ -9177,17 +9177,17 @@
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>(未命名)</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C11058698</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9203613</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>11</t>
         </is>
       </c>
       <c r="F160" s="2" t="inlineStr">
@@ -9224,7 +9224,7 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9238896</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9449472</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9238907</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9449526</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr">
@@ -9281,7 +9281,7 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7606596</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8068451</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7606599</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8068454</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr">
@@ -9338,7 +9338,7 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9215213</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8068451</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
@@ -9348,17 +9348,17 @@
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9215404</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9332062</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F163" s="2" t="inlineStr">
@@ -9395,7 +9395,7 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9203607</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6916380</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
@@ -9405,17 +9405,17 @@
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9203613</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6916383</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F164" s="2" t="inlineStr">
@@ -9452,7 +9452,7 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9449472</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9204619</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
@@ -9462,17 +9462,17 @@
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9449526</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9204651</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F165" s="2" t="inlineStr">
@@ -9509,7 +9509,7 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8068451</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9205374</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
@@ -9519,17 +9519,17 @@
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8068454</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9205377</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F166" s="2" t="inlineStr">
@@ -9566,7 +9566,7 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8068451</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C10786885</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
@@ -9581,7 +9581,7 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9332062</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C10786888</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
@@ -9623,7 +9623,7 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6916380</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9931522</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
@@ -9633,17 +9633,17 @@
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6916383</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9931525</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F168" s="2" t="inlineStr">
@@ -9680,47 +9680,47 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9204619</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308823</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>2020W MM</t>
+          <t>2020X MM</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t/>
         </is>
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9204651</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6700105</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t/>
         </is>
       </c>
       <c r="F169" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t/>
         </is>
       </c>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c r="I169" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c r="J169" s="2" t="inlineStr">
@@ -9737,27 +9737,27 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9205374</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308823</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>2020W MM</t>
+          <t>2020X MM</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9205377</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8550379</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F170" s="2" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="H170" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I170" s="2" t="inlineStr">
@@ -9794,27 +9794,27 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C10786885</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308823</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>2020W MM</t>
+          <t>2020X MM</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C10786888</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C577901</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F171" s="2" t="inlineStr">
@@ -9824,17 +9824,17 @@
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I171" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J171" s="2" t="inlineStr">
@@ -9844,34 +9844,34 @@
       </c>
       <c r="K171" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9931522</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308827</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>2020W MM</t>
+          <t>2020X MM</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9931525</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5706002</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F172" s="2" t="inlineStr">
@@ -9908,7 +9908,7 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308823</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308827</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
@@ -9918,17 +9918,17 @@
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6700105</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8413736</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F173" s="2" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="H173" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I173" s="2" t="inlineStr">
@@ -9965,7 +9965,7 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308823</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308827</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
@@ -9975,17 +9975,17 @@
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>06</t>
         </is>
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8550379</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8738838</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F174" s="2" t="inlineStr">
@@ -10000,7 +10000,7 @@
       </c>
       <c r="H174" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I174" s="2" t="inlineStr">
@@ -10022,7 +10022,7 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308823</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308817</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
@@ -10032,17 +10032,17 @@
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C577901</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C527126</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F175" s="2" t="inlineStr">
@@ -10052,17 +10052,17 @@
       </c>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I175" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J175" s="2" t="inlineStr">
@@ -10072,14 +10072,14 @@
       </c>
       <c r="K175" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308827</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308817</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
@@ -10089,17 +10089,17 @@
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>06</t>
         </is>
       </c>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5706002</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8889817</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F176" s="2" t="inlineStr">
@@ -10136,7 +10136,7 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308827</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308814</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
@@ -10146,17 +10146,17 @@
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8413736</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C514880</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F177" s="2" t="inlineStr">
@@ -10193,7 +10193,7 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308827</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308814</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
@@ -10203,17 +10203,17 @@
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8738838</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7606265</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F178" s="2" t="inlineStr">
@@ -10250,7 +10250,7 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308817</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308814</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
@@ -10260,17 +10260,17 @@
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C527126</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C514883</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F179" s="2" t="inlineStr">
@@ -10307,7 +10307,7 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308817</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308814</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
@@ -10322,7 +10322,7 @@
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8889817</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C312554</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr">
@@ -10364,7 +10364,7 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308814</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308808</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
@@ -10379,7 +10379,7 @@
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C514880</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6355463</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr">
@@ -10421,7 +10421,7 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308814</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308808</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
@@ -10431,17 +10431,17 @@
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7606265</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8443962</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F182" s="2" t="inlineStr">
@@ -10478,7 +10478,7 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308814</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308802</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
@@ -10488,17 +10488,17 @@
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C514883</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C517018</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F183" s="2" t="inlineStr">
@@ -10535,7 +10535,7 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308814</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308802</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
@@ -10545,17 +10545,17 @@
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C312554</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C517015</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F184" s="2" t="inlineStr">
@@ -10592,7 +10592,7 @@
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308808</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308805</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
@@ -10602,17 +10602,17 @@
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>(未命名)</t>
         </is>
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6355463</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5519990</t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F185" s="2" t="inlineStr">
@@ -10649,7 +10649,7 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308808</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308805</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
@@ -10659,17 +10659,17 @@
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8443962</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C553143</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F186" s="2" t="inlineStr">
@@ -10706,7 +10706,7 @@
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308802</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308805</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
@@ -10716,17 +10716,17 @@
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C517018</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C553146</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F187" s="2" t="inlineStr">
@@ -10763,7 +10763,7 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308802</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308799</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
@@ -10773,17 +10773,17 @@
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C517015</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7606262</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F188" s="2" t="inlineStr">
@@ -10820,7 +10820,7 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308805</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308811</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
@@ -10835,7 +10835,7 @@
       </c>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5519990</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5623813</t>
         </is>
       </c>
       <c r="E189" s="2" t="inlineStr">
@@ -10877,7 +10877,7 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308805</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308811</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
@@ -10887,17 +10887,17 @@
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C553143</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C3381114</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F190" s="2" t="inlineStr">
@@ -10934,7 +10934,7 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308805</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308811</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
@@ -10944,17 +10944,17 @@
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C553146</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6724705</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F191" s="2" t="inlineStr">
@@ -10991,7 +10991,7 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308799</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308811</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
@@ -11001,17 +11001,17 @@
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>06</t>
         </is>
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7606262</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5623818</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F192" s="2" t="inlineStr">
@@ -11048,7 +11048,7 @@
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308811</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8417930</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
@@ -11063,7 +11063,7 @@
       </c>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5623813</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8417933</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr">
@@ -11105,7 +11105,7 @@
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308811</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8763892</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
@@ -11115,17 +11115,17 @@
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>06</t>
         </is>
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C3381114</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8763938</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F194" s="2" t="inlineStr">
@@ -11162,7 +11162,7 @@
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308811</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7680388</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
@@ -11172,17 +11172,17 @@
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6724705</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7680418</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F195" s="2" t="inlineStr">
@@ -11219,7 +11219,7 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308811</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7680388</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
@@ -11229,17 +11229,17 @@
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5623818</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8506602</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F196" s="2" t="inlineStr">
@@ -11276,7 +11276,7 @@
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8417930</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8445607</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
@@ -11286,17 +11286,17 @@
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>(未命名)</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8417933</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8446040</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>05</t>
         </is>
       </c>
       <c r="F197" s="2" t="inlineStr">
@@ -11333,7 +11333,7 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8763892</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6539805</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
@@ -11343,17 +11343,17 @@
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8763938</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6539808</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F198" s="2" t="inlineStr">
@@ -11390,7 +11390,7 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7680388</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8537062</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
@@ -11400,17 +11400,17 @@
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7680418</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8564310</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F199" s="2" t="inlineStr">
@@ -11447,27 +11447,27 @@
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7680388</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12274805</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>2020X MM</t>
+          <t>2021A MM</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8506602</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12274812</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F200" s="2" t="inlineStr">
@@ -11504,27 +11504,27 @@
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8445607</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12275499</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>2020X MM</t>
+          <t>2021A MM</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D201" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8446040</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12275502</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F201" s="2" t="inlineStr">
@@ -11561,27 +11561,27 @@
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6539805</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12864250</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>2020X MM</t>
+          <t>2021A MM</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6539808</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12864254</t>
         </is>
       </c>
       <c r="E202" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F202" s="2" t="inlineStr">
@@ -11618,27 +11618,27 @@
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8537062</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C13315002</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>2020X MM</t>
+          <t>2021A MM</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>09</t>
         </is>
       </c>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8564310</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C13315039</t>
         </is>
       </c>
       <c r="E203" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>09</t>
         </is>
       </c>
       <c r="F203" s="2" t="inlineStr">
@@ -11675,7 +11675,7 @@
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12274805</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12273331</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
@@ -11690,7 +11690,7 @@
       </c>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12274812</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12273343</t>
         </is>
       </c>
       <c r="E204" s="2" t="inlineStr">
@@ -11732,7 +11732,7 @@
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12275499</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12269953</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12275502</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12269992</t>
         </is>
       </c>
       <c r="E205" s="2" t="inlineStr">
@@ -11789,7 +11789,7 @@
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12864250</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12272164</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
@@ -11799,17 +11799,17 @@
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>09</t>
         </is>
       </c>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12864254</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12272176</t>
         </is>
       </c>
       <c r="E206" s="2" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>09</t>
         </is>
       </c>
       <c r="F206" s="2" t="inlineStr">
@@ -11846,7 +11846,7 @@
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C13315002</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12271636</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="D207" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C13315039</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12271705</t>
         </is>
       </c>
       <c r="E207" s="2" t="inlineStr">
@@ -11903,7 +11903,7 @@
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12273331</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12270879</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
@@ -11918,7 +11918,7 @@
       </c>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12273343</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12270952</t>
         </is>
       </c>
       <c r="E208" s="2" t="inlineStr">
@@ -11960,7 +11960,7 @@
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12272164</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12270879</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
@@ -11970,17 +11970,17 @@
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08</t>
         </is>
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12272176</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12276583</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08</t>
         </is>
       </c>
       <c r="F209" s="2" t="inlineStr">
